--- a/etude.xlsx
+++ b/etude.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mts\Desktop\ramadan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F665C5-02F2-4889-8235-D2FBD24B08F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000919BB-BC53-483D-9E60-F393510C8210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>matricule</t>
   </si>
@@ -47,12 +47,15 @@
   <si>
     <t>RSS</t>
   </si>
+  <si>
+    <t>CNM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +75,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,7 +458,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,63 +511,105 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>22054</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>22059</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>22060</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>21066</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>21067</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>21068</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>21069</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4"/>
@@ -755,6 +806,7 @@
       <c r="F37" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
